--- a/Dati contagi nelle scuole/Regioni/Friuli-Venezia Giulia/RILEVAZIONE COVID-19 NELLE SCUOLE STATALI DEL FVG_provinciale.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Friuli-Venezia Giulia/RILEVAZIONE COVID-19 NELLE SCUOLE STATALI DEL FVG_provinciale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Davide Tosi/Orizzonte Scuola /Regioni/Friuli-Venezia Giulia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD384004-2D94-884A-8260-EF3E739E8622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F1641E-2F87-5C47-9CD4-07E05759A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15080" yWindow="800" windowWidth="13720" windowHeight="15500" activeTab="4" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -93,6 +93,15 @@
   <si>
     <t>Pordenone</t>
   </si>
+  <si>
+    <t>08/11/2021 - 14/11/2021</t>
+  </si>
+  <si>
+    <t>15/11/2021 - 21/11/2021</t>
+  </si>
+  <si>
+    <t>21/11/2021 - 29/11/2021</t>
+  </si>
 </sst>
 </file>
 
@@ -127,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -444,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121A6DDE-E74E-2542-80AB-86B57FB1660E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C12" sqref="C12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,93 +487,369 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>1318</v>
+        <v>1581</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
         <v>8</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>487</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>459</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1485</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>850</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>549</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>413</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1483</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>731</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>558</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>412</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1318</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>826</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
         <v>9</v>
       </c>
     </row>
@@ -574,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B737C05B-D467-874A-9343-0E278463B46A}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +896,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -619,24 +905,24 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>1306</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>47</v>
+        <v>1218</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -645,24 +931,24 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>145</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>3</v>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -671,24 +957,31 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -697,24 +990,24 @@
         <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>1991</v>
-      </c>
-      <c r="E6">
+        <v>2136</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>65</v>
-      </c>
-      <c r="H6">
-        <v>150</v>
+      <c r="G6" s="1">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -723,24 +1016,24 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>211</v>
-      </c>
-      <c r="E7">
+        <v>228</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -749,24 +1042,31 @@
         <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -775,24 +1075,24 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>5005</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>137</v>
-      </c>
-      <c r="H10">
-        <v>149</v>
+        <v>5926</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -801,24 +1101,24 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>581</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
+        <v>686</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -827,24 +1127,31 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>262</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -853,24 +1160,24 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>3416</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>64</v>
-      </c>
-      <c r="H14">
-        <v>98</v>
+        <v>3414</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -881,22 +1188,22 @@
       <c r="D15" s="1">
         <v>367</v>
       </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -907,16 +1214,994 @@
       <c r="D16" s="1">
         <v>166</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>952</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2338</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>247</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5755</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>86</v>
+      </c>
+      <c r="H26" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>667</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>303</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3414</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>367</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>166</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1104</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>125</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2136</v>
+      </c>
+      <c r="E38" s="1">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1">
+        <v>93</v>
+      </c>
+      <c r="H38" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>228</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>105</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5583</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>95</v>
+      </c>
+      <c r="H42" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>646</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>293</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2873</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>34</v>
+      </c>
+      <c r="H46" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>312</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>141</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1306</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>145</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>67</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1991</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>23</v>
+      </c>
+      <c r="G54">
+        <v>65</v>
+      </c>
+      <c r="H54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>211</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5005</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>137</v>
+      </c>
+      <c r="H58">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>581</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>262</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3416</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>64</v>
+      </c>
+      <c r="H62">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>367</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
         <v>5</v>
       </c>
     </row>
@@ -927,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB74AEF-C73E-A544-B53E-5AD74CCE04D7}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,7 +2248,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -972,24 +2257,24 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>7437</v>
-      </c>
-      <c r="E2">
-        <v>102</v>
+        <v>6787</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
       </c>
       <c r="F2" s="1">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="H2" s="1">
-        <v>333</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -997,25 +2282,25 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>781</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
+      <c r="D3" s="1">
+        <v>718</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1023,25 +2308,32 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>435</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>39</v>
-      </c>
+      <c r="D4" s="1">
+        <v>399</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1050,24 +2342,24 @@
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>4435</v>
-      </c>
-      <c r="E6">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>62</v>
-      </c>
-      <c r="G6">
-        <v>183</v>
-      </c>
-      <c r="H6">
-        <v>429</v>
+        <v>4650</v>
+      </c>
+      <c r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1">
+        <v>174</v>
+      </c>
+      <c r="H6" s="1">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1075,25 +2367,25 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>466</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
+      <c r="D7" s="1">
+        <v>497</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1101,25 +2393,32 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>249</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
+      <c r="D8" s="1">
+        <v>263</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1128,24 +2427,24 @@
         <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>13425</v>
-      </c>
-      <c r="E10">
-        <v>54</v>
-      </c>
-      <c r="F10">
-        <v>77</v>
-      </c>
-      <c r="G10">
-        <v>464</v>
-      </c>
-      <c r="H10">
-        <v>641</v>
+        <v>16340</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1">
+        <v>448</v>
+      </c>
+      <c r="H10" s="1">
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1154,24 +2453,24 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>1622</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11">
-        <v>35</v>
+        <v>1965</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1179,25 +2478,32 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>836</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>38</v>
-      </c>
+      <c r="D12" s="1">
+        <v>1004</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1206,24 +2512,24 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>13156</v>
-      </c>
-      <c r="E14">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>102</v>
-      </c>
-      <c r="G14">
-        <v>428</v>
-      </c>
-      <c r="H14">
-        <v>647</v>
+        <v>13152</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1234,22 +2540,22 @@
       <c r="D15" s="1">
         <v>1367</v>
       </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>21</v>
-      </c>
-      <c r="H15">
-        <v>29</v>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1260,16 +2566,994 @@
       <c r="D16" s="1">
         <v>734</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6267</v>
+      </c>
+      <c r="E18" s="1">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1">
+        <v>266</v>
+      </c>
+      <c r="H18" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>663</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>370</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5014</v>
+      </c>
+      <c r="E22" s="1">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1">
+        <v>272</v>
+      </c>
+      <c r="H22" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>528</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>282</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15912</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1">
+        <v>88</v>
+      </c>
+      <c r="G26" s="1">
+        <v>373</v>
+      </c>
+      <c r="H26" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1922</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>993</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13154</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1">
+        <v>55</v>
+      </c>
+      <c r="H30" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1367</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>734</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6761</v>
+      </c>
+      <c r="E34" s="1">
+        <v>57</v>
+      </c>
+      <c r="F34" s="1">
+        <v>97</v>
+      </c>
+      <c r="G34" s="1">
+        <v>114</v>
+      </c>
+      <c r="H34" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>702</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>393</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4650</v>
+      </c>
+      <c r="E38" s="1">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>83</v>
+      </c>
+      <c r="G38" s="1">
+        <v>253</v>
+      </c>
+      <c r="H38" s="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>497</v>
+      </c>
+      <c r="E39" s="1">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>263</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15189</v>
+      </c>
+      <c r="E42" s="1">
+        <v>33</v>
+      </c>
+      <c r="F42" s="1">
+        <v>66</v>
+      </c>
+      <c r="G42" s="1">
+        <v>350</v>
+      </c>
+      <c r="H42" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1831</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <v>20</v>
+      </c>
+      <c r="H43" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>943</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10937</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44</v>
+      </c>
+      <c r="F46" s="1">
+        <v>66</v>
+      </c>
+      <c r="G46" s="1">
+        <v>292</v>
+      </c>
+      <c r="H46" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1125</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>611</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7437</v>
+      </c>
+      <c r="E50">
+        <v>102</v>
+      </c>
+      <c r="F50" s="1">
+        <v>155</v>
+      </c>
+      <c r="G50" s="1">
+        <v>256</v>
+      </c>
+      <c r="H50" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>781</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>13</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>435</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4435</v>
+      </c>
+      <c r="E54">
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <v>62</v>
+      </c>
+      <c r="G54">
+        <v>183</v>
+      </c>
+      <c r="H54">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>466</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>249</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>13425</v>
+      </c>
+      <c r="E58">
+        <v>54</v>
+      </c>
+      <c r="F58">
+        <v>77</v>
+      </c>
+      <c r="G58">
+        <v>464</v>
+      </c>
+      <c r="H58">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1622</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>836</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>13156</v>
+      </c>
+      <c r="E62">
+        <v>53</v>
+      </c>
+      <c r="F62">
+        <v>102</v>
+      </c>
+      <c r="G62">
+        <v>428</v>
+      </c>
+      <c r="H62">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1367</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>734</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
         <v>65</v>
       </c>
     </row>
@@ -1280,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A4030-A684-DD47-AEA0-10B8907BB09D}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,7 +3600,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1325,24 +3609,24 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>5199</v>
-      </c>
-      <c r="E2">
-        <v>79</v>
-      </c>
-      <c r="F2">
-        <v>115</v>
+        <v>4726</v>
+      </c>
+      <c r="E2" s="1">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1">
+        <v>68</v>
       </c>
       <c r="G2" s="1">
-        <v>159</v>
-      </c>
-      <c r="H2">
-        <v>244</v>
+        <v>158</v>
+      </c>
+      <c r="H2" s="1">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1350,25 +3634,25 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>570</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
+      <c r="D3" s="1">
+        <v>502</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1376,25 +3660,32 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>273</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
+      <c r="D4" s="1">
+        <v>247</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1403,24 +3694,24 @@
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>2996</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>75</v>
-      </c>
-      <c r="H6">
-        <v>166</v>
+        <v>3088</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>152</v>
+      </c>
+      <c r="H6" s="1">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1428,25 +3719,25 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>279</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
+      <c r="D7" s="1">
+        <v>293</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1454,25 +3745,32 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>145</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
+      <c r="D8" s="1">
+        <v>149</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1481,24 +3779,24 @@
         <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>9402</v>
-      </c>
-      <c r="E10">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>47</v>
-      </c>
-      <c r="G10">
-        <v>282</v>
-      </c>
-      <c r="H10">
-        <v>436</v>
+        <v>11492</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>212</v>
+      </c>
+      <c r="H10" s="1">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1507,24 +3805,24 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>1039</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
+        <v>1278</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1532,25 +3830,32 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>501</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
+      <c r="D12" s="1">
+        <v>613</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1559,24 +3864,24 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E14">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>80</v>
-      </c>
-      <c r="G14">
-        <v>205</v>
-      </c>
-      <c r="H14">
-        <v>291</v>
+        <v>7997</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1587,22 +3892,22 @@
       <c r="D15" s="1">
         <v>769</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1613,16 +3918,994 @@
       <c r="D16" s="1">
         <v>405</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4289</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1">
+        <v>151</v>
+      </c>
+      <c r="H18" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>458</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>224</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3327</v>
+      </c>
+      <c r="E22" s="1">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1">
+        <v>181</v>
+      </c>
+      <c r="H22" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>314</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>161</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11177</v>
+      </c>
+      <c r="E26" s="1">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1">
+        <v>331</v>
+      </c>
+      <c r="H26" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1252</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>600</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7997</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1">
+        <v>150</v>
+      </c>
+      <c r="H30" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>769</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>405</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4821</v>
+      </c>
+      <c r="E34" s="1">
+        <v>66</v>
+      </c>
+      <c r="F34" s="1">
+        <v>103</v>
+      </c>
+      <c r="G34" s="1">
+        <v>190</v>
+      </c>
+      <c r="H34" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>525</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>252</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3088</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>39</v>
+      </c>
+      <c r="G38" s="1">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>293</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>149</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10610</v>
+      </c>
+      <c r="E42" s="1">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1">
+        <v>83</v>
+      </c>
+      <c r="G42" s="1">
+        <v>505</v>
+      </c>
+      <c r="H42" s="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1177</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>567</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6637</v>
+      </c>
+      <c r="E46" s="1">
+        <v>28</v>
+      </c>
+      <c r="F46" s="1">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1">
+        <v>110</v>
+      </c>
+      <c r="H46" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>643</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1">
+        <v>6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>341</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5199</v>
+      </c>
+      <c r="E50">
+        <v>79</v>
+      </c>
+      <c r="F50">
+        <v>115</v>
+      </c>
+      <c r="G50" s="1">
+        <v>159</v>
+      </c>
+      <c r="H50">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>570</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>273</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2996</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>75</v>
+      </c>
+      <c r="H54">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>279</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>145</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9402</v>
+      </c>
+      <c r="E58">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>47</v>
+      </c>
+      <c r="G58">
+        <v>282</v>
+      </c>
+      <c r="H58">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1039</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>501</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E62">
+        <v>42</v>
+      </c>
+      <c r="F62">
+        <v>80</v>
+      </c>
+      <c r="G62">
+        <v>205</v>
+      </c>
+      <c r="H62">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>769</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>405</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
         <v>33</v>
       </c>
     </row>
@@ -1633,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA9AE7-C26D-9A4E-87A8-601AD591E175}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,7 +4952,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1678,24 +4961,24 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>5890</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>61</v>
+        <v>7460</v>
+      </c>
+      <c r="E2" s="1">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1704,24 +4987,24 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>666</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
+        <v>808</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
         <v>11</v>
       </c>
       <c r="H3" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1730,24 +5013,31 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>322</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
         <v>31</v>
       </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1756,24 +5046,24 @@
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>4044</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>125</v>
-      </c>
-      <c r="H6">
-        <v>210</v>
+        <v>5884</v>
+      </c>
+      <c r="E6" s="1">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1782,24 +5072,24 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>520</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
+        <v>672</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1808,24 +5098,31 @@
         <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>228</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1834,24 +5131,24 @@
         <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>15685</v>
-      </c>
-      <c r="E10">
-        <v>49</v>
-      </c>
-      <c r="F10">
-        <v>71</v>
-      </c>
-      <c r="G10">
-        <v>426</v>
-      </c>
-      <c r="H10">
-        <v>496</v>
+        <v>16766</v>
+      </c>
+      <c r="E10" s="1">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>104</v>
+      </c>
+      <c r="H10" s="1">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1860,24 +5157,24 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>1666</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>13</v>
+        <v>1800</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1886,24 +5183,31 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>815</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>34</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1912,24 +5216,24 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>9276</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>51</v>
-      </c>
-      <c r="G14">
-        <v>238</v>
-      </c>
-      <c r="H14">
-        <v>370</v>
+        <v>10310</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>159</v>
+      </c>
+      <c r="H14" s="1">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1937,25 +5241,25 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
-        <v>852</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
+      <c r="D15" s="1">
+        <v>926</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1964,18 +5268,996 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
+        <v>472</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5890</v>
+      </c>
+      <c r="E18" s="1">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>666</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>322</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4906</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>561</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>266</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14643</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1">
+        <v>51</v>
+      </c>
+      <c r="G26" s="1">
+        <v>262</v>
+      </c>
+      <c r="H26" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1530</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>750</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10309</v>
+      </c>
+      <c r="E30" s="1">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1">
+        <v>116</v>
+      </c>
+      <c r="H30" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>926</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>472</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7027</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43</v>
+      </c>
+      <c r="F34" s="1">
+        <v>69</v>
+      </c>
+      <c r="G34" s="1">
+        <v>60</v>
+      </c>
+      <c r="H34" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>762</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>378</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4262</v>
+      </c>
+      <c r="E38" s="1">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1">
+        <v>123</v>
+      </c>
+      <c r="H38" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>485</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>227</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16072</v>
+      </c>
+      <c r="E42" s="1">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1">
+        <v>305</v>
+      </c>
+      <c r="H42" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1687</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>820</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9762</v>
+      </c>
+      <c r="E46" s="1">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1">
+        <v>113</v>
+      </c>
+      <c r="H46" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>871</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>448</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5890</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <v>61</v>
+      </c>
+      <c r="G50">
+        <v>23</v>
+      </c>
+      <c r="H50">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>666</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>322</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4044</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>125</v>
+      </c>
+      <c r="H54">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>520</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>228</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>15685</v>
+      </c>
+      <c r="E58">
+        <v>49</v>
+      </c>
+      <c r="F58">
+        <v>71</v>
+      </c>
+      <c r="G58">
+        <v>426</v>
+      </c>
+      <c r="H58">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1666</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>815</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9276</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>51</v>
+      </c>
+      <c r="G62">
+        <v>238</v>
+      </c>
+      <c r="H62">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>852</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
         <v>427</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
         <v>21</v>
       </c>
     </row>
